--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145668.1755658541</v>
+        <v>25166571.96130496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145668.1755658541</v>
+        <v>25166571.96130496</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17946.27279814595</v>
+        <v>2151185.35628233</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17946.27279814595</v>
+        <v>2151185.35628233</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341076953.312609</v>
+        <v>51662754.05938862</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9746.697714449743</v>
+        <v>1046734.437396718</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19446.37466449318</v>
+        <v>2090093.951134757</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28968.92499155801</v>
+        <v>3158954.307944546</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38987.42401958603</v>
+        <v>4184935.60750389</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48879.42985378965</v>
+        <v>5215714.507756154</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58382.45809585128</v>
+        <v>6286676.458353364</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67923.57123320094</v>
+        <v>7383630.615251309</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77647.02245006949</v>
+        <v>8482956.06794191</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87704.89583637862</v>
+        <v>9514486.866993727</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97252.96279392147</v>
+        <v>10590683.49008453</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106597.7285382245</v>
+        <v>11683652.91478132</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115935.2752051544</v>
+        <v>12779364.40715226</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125275.5940120844</v>
+        <v>13875627.55538318</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135312.6135171372</v>
+        <v>14906210.74953708</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146275.0984025096</v>
+        <v>15802537.60389125</v>
       </c>
     </row>
   </sheetData>
